--- a/paths.xlsx
+++ b/paths.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365.sharepoint.com/sites/DENG-SESAM/Documenti condivisi/PUBLICATIONS/2023_Rinaldi_IIOA/Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\Lorenzo\IIOA-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="11_AD4DB114E441178AC67DF44CE6D4E0DA683EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E33BD05-27C2-4A6D-A02C-A115A2FF5985}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683A600D-8BDB-4D21-8336-D07A12178760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -47,21 +47,9 @@
     <t>esm sets</t>
   </si>
   <si>
-    <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\PUBLICATIONS\2023_Rinaldi_IIOA\Model\Data\esm\data</t>
-  </si>
-  <si>
-    <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\PUBLICATIONS\2023_Rinaldi_IIOA\Model\Data\esm\map_set.xlsx</t>
-  </si>
-  <si>
     <t>esm plots</t>
   </si>
   <si>
-    <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\PUBLICATIONS\2023_Rinaldi_IIOA\Model\Plots\esm</t>
-  </si>
-  <si>
-    <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\PUBLICATIONS\2023_Rinaldi_IIOA\Model\Data\mrio\database\baseline</t>
-  </si>
-  <si>
     <t>mrio db raw</t>
   </si>
   <si>
@@ -74,37 +62,49 @@
     <t>mrio add activities</t>
   </si>
   <si>
-    <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\PUBLICATIONS\2023_Rinaldi_IIOA\Model\Data\mrio\add sectors\new_activities.xlsx</t>
-  </si>
-  <si>
     <t>mrio add commodities</t>
   </si>
   <si>
-    <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\PUBLICATIONS\2023_Rinaldi_IIOA\Model\Data\mrio\add sectors\new_commodities.xlsx</t>
-  </si>
-  <si>
     <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\DATASETS\Exiobase 3.8.2\EEMRSUT\2019</t>
   </si>
   <si>
     <t>mrio aggr baseline</t>
   </si>
   <si>
-    <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\PUBLICATIONS\2023_Rinaldi_IIOA\Model\Data\mrio\aggregations\raw.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\PUBLICATIONS\2023_Rinaldi_IIOA\Model\Data\mrio\aggregations\baseline.xlsx</t>
-  </si>
-  <si>
     <t>mrio plots</t>
   </si>
   <si>
-    <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\PUBLICATIONS\2023_Rinaldi_IIOA\Model\Plots\mrio</t>
-  </si>
-  <si>
     <t>link prices</t>
   </si>
   <si>
-    <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\PUBLICATIONS\2023_Rinaldi_IIOA\Model\Data\link\prices.xlsx</t>
+    <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\PUBLICATIONS_Archive\2023_Rinaldi_IIOA_EY-DYNERIO\Model\Data\esm\map_set.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\PUBLICATIONS_Archive\2023_Rinaldi_IIOA_EY-DYNERIO\Model\Plots\esm</t>
+  </si>
+  <si>
+    <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\PUBLICATIONS_Archive\2023_Rinaldi_IIOA_EY-DYNERIO\Model\Data\link\prices.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\PUBLICATIONS_Archive\2023_Rinaldi_IIOA_EY-DYNERIO\Model\Data\mrio\database\baseline</t>
+  </si>
+  <si>
+    <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\PUBLICATIONS_Archive\2023_Rinaldi_IIOA_EY-DYNERIO\Model\Data\mrio\aggregations\raw.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\PUBLICATIONS_Archive\2023_Rinaldi_IIOA_EY-DYNERIO\Model\Data\mrio\aggregations\baseline.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\PUBLICATIONS_Archive\2023_Rinaldi_IIOA_EY-DYNERIO\Model\Data\mrio\add sectors\new_activities.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\PUBLICATIONS_Archive\2023_Rinaldi_IIOA_EY-DYNERIO\Model\Data\mrio\add sectors\new_commodities.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\PUBLICATIONS_Archive\2023_Rinaldi_IIOA_EY-DYNERIO\Model\Plots\mrio</t>
+  </si>
+  <si>
+    <t>C:\Users\loren\Politecnico di Milano\DENG-SESAM - Documenti\PUBLICATIONS_Archive\2023_Rinaldi_IIOA_EY-DYNERIO\Model\Data\esm\data</t>
   </si>
 </sst>
 </file>
@@ -153,7 +153,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -461,44 +461,44 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -514,26 +514,26 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
@@ -557,15 +557,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100241E96938535DD4B921FCDFB54345D30" ma:contentTypeVersion="16" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ea9f1ad5a580c8ec0c54747f8c275290">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e" xmlns:ns3="e67e9a88-35e1-4b39-8da9-a609eb308282" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a21d2b210d3c14c0eb20b1c12c2a17c" ns2:_="" ns3:_="">
     <xsd:import namespace="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e"/>
@@ -808,6 +799,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67221675-3476-4E1D-926A-0F02CD3F5974}">
   <ds:schemaRefs>
@@ -820,14 +820,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EB5765E-5970-4E33-BF21-782646D1C621}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08BCB853-C38A-4B5A-8197-FD1F3C0C88D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -844,4 +836,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EB5765E-5970-4E33-BF21-782646D1C621}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>